--- a/JD UI Design.xlsx
+++ b/JD UI Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL PROJECTS\Rehabilitation_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE8C496-8AA5-4DF5-8275-A51A4C9051D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F32DB18-5454-4E59-A3D3-A917A3303B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{993EB53F-4FB9-4129-95DD-4BF5253539AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{993EB53F-4FB9-4129-95DD-4BF5253539AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,20 +105,10 @@
     <t xml:space="preserve">Chọn chế độ </t>
   </si>
   <si>
-    <t>Label 1</t>
-  </si>
-  <si>
-    <t>Label 2</t>
-  </si>
-  <si>
     <t>Chú thích</t>
   </si>
   <si>
     <t>Ví dụ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cùng concept với background đầu nếu có thể 
-hình ảnh nên khác đi một tí xíu, tránh sự lặp lại </t>
   </si>
   <si>
     <r>
@@ -156,19 +146,6 @@
     <t>Chọn loại game</t>
   </si>
   <si>
-    <t>Lable 3</t>
-  </si>
-  <si>
-    <t>Label 4</t>
-  </si>
-  <si>
-    <t>Label 5</t>
-  </si>
-  <si>
-    <t>* Label = hình ảnh + Keyword mô tả
-(Tương tự như nút nhấn nhưng có kết hợp hình ảnh)</t>
-  </si>
-  <si>
     <t>MÔ TẢ CÔNG VIỆC</t>
   </si>
   <si>
@@ -232,10 +209,108 @@
     <t>Giao diện Pacman Game</t>
   </si>
   <si>
-    <t>Giao diện history</t>
-  </si>
-  <si>
-    <t>Giao diện Detail</t>
+    <r>
+      <t>Giao diện</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Detail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thành phần
+ bên trong history</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Giao diện </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>History</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> của các 
+trò chơi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Label 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Play game)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Label 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(History)</t>
+    </r>
+  </si>
+  <si>
+    <t>Lable 3 (Bakery game)</t>
+  </si>
+  <si>
+    <t>Label 4 (My Pet game)</t>
+  </si>
+  <si>
+    <t>Label 5 (Pacman game)</t>
+  </si>
+  <si>
+    <t>Cùng concept với background đầu, nếu có thể 
+hình ảnh nên khác đi một tí xíu, tránh lặp lại hoàn toàn</t>
+  </si>
+  <si>
+    <t>* Label = hình ảnh + Keyword mô tả
+(Tương tự như nút nhấn nhưng có kết hợp hình ảnh)
+Keyword search: Robot and Hand, shoulder Rehabilitation Robot/System/Machine, Shoulder Muscle Recovery system</t>
   </si>
 </sst>
 </file>
@@ -1069,6 +1144,185 @@
         <a:xfrm>
           <a:off x="14377737" y="6392587"/>
           <a:ext cx="1814762" cy="1923841"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>246843</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>299659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1477654</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1695718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Purchase history vector icon symbol isolated on white background. | CanStock">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C32197-A8A4-B342-B960-83B624E64036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="25915" t="21418" r="25409" b="25579"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10549942" y="4506758"/>
+          <a:ext cx="1230811" cy="1396059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1899634</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>375632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3251916</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1601139</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="Graph Table Icon Vector Stock Vector (Royalty Free) 1358658428 |  Shutterstock">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EDD909F-7C9B-CA37-3BFF-7A1786E5F04F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="15167" t="15689" r="15493" b="25980"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12202733" y="4582731"/>
+          <a:ext cx="1352282" cy="1225507"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2887014</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>182452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5745851</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1888902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="Humans Beat Robots, Hands Down | Discover Magazine">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCADA0C9-8B39-5B31-9433-6FC1DEF3B6D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13190113" y="2264537"/>
+          <a:ext cx="2858837" cy="1706450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1389,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE0090C-C0BF-4AA7-B0F7-C27EAE42648C}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1400,12 +1654,12 @@
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
     <col min="4" max="4" width="52" customWidth="1"/>
     <col min="5" max="5" width="28.6640625" customWidth="1"/>
-    <col min="6" max="6" width="105" customWidth="1"/>
+    <col min="6" max="6" width="134.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1428,10 +1682,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1465,7 +1719,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="4" t="s">
@@ -1497,27 +1751,26 @@
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1527,7 +1780,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1538,13 +1791,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="2"/>
@@ -1553,10 +1806,10 @@
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="E11" s="2"/>
       <c r="G11" s="2"/>
@@ -1565,10 +1818,10 @@
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="G12" s="2"/>
@@ -1580,7 +1833,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1591,7 +1844,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1604,7 +1857,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1617,7 +1870,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1629,8 +1882,8 @@
       <c r="A17" s="1">
         <v>7</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>32</v>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1642,8 +1895,8 @@
       <c r="A18" s="1">
         <v>8</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
